--- a/BOM/BOM_V3.xlsx
+++ b/BOM/BOM_V3.xlsx
@@ -61,13 +61,13 @@
     <t>V3</t>
   </si>
   <si>
-    <t>50W T9 halogen heater bulb</t>
+    <t>50W G9 halogen heater bulb</t>
   </si>
   <si>
     <t>https://amzn.to/3JxtanK</t>
   </si>
   <si>
-    <t>T9 Lamp Socket</t>
+    <t>G9 Lamp Socket</t>
   </si>
   <si>
     <t>https://amzn.to/3XPkE7I</t>
@@ -82,7 +82,7 @@
     <t>1LB</t>
   </si>
   <si>
-    <t>https://taulman3d.com/carbonfiberalloynylonfilament.html</t>
+    <t>taulman3D Carbon Fiber Alloy Nylon 3D Printing Filament</t>
   </si>
   <si>
     <t>Feel free to use whatever works best for you (this stuff just prints even on a cold bed!) MUST BE KEPT DRY!!!</t>
@@ -593,7 +593,7 @@
       <c r="C16" s="10">
         <v>40.0</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="2" t="s">
